--- a/Cleaned-Data/2016-Passouts/Sem-5_2016_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2016-Passouts/Sem-5_2016_Passout_cleaned.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashant/Downloads/Student-Placement-Guidance/Cleaned-Data/2016-Passouts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tejas\Student-Placement-Guidance\Cleaned-Data\2016-Passouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16125"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="195">
   <si>
     <t>MP-TH</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P/F</t>
@@ -623,7 +620,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1001,41 +998,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="31.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.59765625" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -1044,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>2</v>
@@ -1065,10 +1062,10 @@
         <v>6</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>7</v>
@@ -1080,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>10</v>
@@ -1089,21 +1086,21 @@
         <v>11</v>
       </c>
       <c r="T1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="B2" s="2">
         <v>245201</v>
@@ -1172,9 +1169,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2">
         <v>245300</v>
@@ -1243,9 +1240,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>245202</v>
@@ -1310,13 +1307,13 @@
       <c r="V4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
         <v>245230</v>
@@ -1381,13 +1378,13 @@
       <c r="V5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2">
         <v>245203</v>
@@ -1456,9 +1453,9 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>245204</v>
@@ -1527,9 +1524,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>245205</v>
@@ -1598,9 +1595,9 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>245206</v>
@@ -1669,9 +1666,9 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>245207</v>
@@ -1740,9 +1737,9 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>245208</v>
@@ -1811,9 +1808,9 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>245209</v>
@@ -1882,9 +1879,9 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>245210</v>
@@ -1953,9 +1950,9 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>245211</v>
@@ -2024,9 +2021,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2">
         <v>245213</v>
@@ -2095,9 +2092,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>245215</v>
@@ -2166,9 +2163,9 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>245216</v>
@@ -2237,9 +2234,9 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>245217</v>
@@ -2308,9 +2305,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2">
         <v>245214</v>
@@ -2379,9 +2376,9 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>245241</v>
@@ -2450,9 +2447,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>245218</v>
@@ -2521,9 +2518,9 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>245219</v>
@@ -2592,12 +2589,12 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C23" s="1">
         <v>37</v>
@@ -2659,13 +2656,13 @@
       <c r="V23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
         <v>245220</v>
@@ -2734,9 +2731,9 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>245221</v>
@@ -2805,9 +2802,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2">
         <v>245222</v>
@@ -2876,9 +2873,9 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>245223</v>
@@ -2947,9 +2944,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>245224</v>
@@ -3014,13 +3011,13 @@
       <c r="V28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>245225</v>
@@ -3089,9 +3086,9 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2">
         <v>245226</v>
@@ -3160,9 +3157,9 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2">
         <v>245239</v>
@@ -3231,9 +3228,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <v>245227</v>
@@ -3302,9 +3299,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
         <v>245228</v>
@@ -3373,9 +3370,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
         <v>245231</v>
@@ -3444,9 +3441,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>245232</v>
@@ -3515,9 +3512,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>245233</v>
@@ -3586,9 +3583,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>245234</v>
@@ -3657,9 +3654,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="2">
         <v>245235</v>
@@ -3728,9 +3725,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>245236</v>
@@ -3799,9 +3796,9 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2">
         <v>245237</v>
@@ -3870,9 +3867,9 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
         <v>245238</v>
@@ -3941,9 +3938,9 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2">
         <v>245342</v>
@@ -4012,9 +4009,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" s="2">
         <v>245338</v>
@@ -4083,9 +4080,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
         <v>245240</v>
@@ -4154,9 +4151,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" s="2">
         <v>245242</v>
@@ -4225,9 +4222,9 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
         <v>245243</v>
@@ -4296,9 +4293,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" s="2">
         <v>245244</v>
@@ -4367,9 +4364,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>245245</v>
@@ -4438,9 +4435,9 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>245246</v>
@@ -4509,9 +4506,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>245247</v>
@@ -4580,9 +4577,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>245248</v>
@@ -4651,9 +4648,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>245249</v>
@@ -4722,12 +4719,12 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C53" s="1">
         <v>32</v>
@@ -4793,9 +4790,9 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="2">
         <v>245250</v>
@@ -4864,9 +4861,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>245251</v>
@@ -4935,9 +4932,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="2">
         <v>245252</v>
@@ -5006,9 +5003,9 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>245253</v>
@@ -5077,9 +5074,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>245254</v>
@@ -5148,9 +5145,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2">
         <v>245255</v>
@@ -5219,9 +5216,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>245256</v>
@@ -5290,9 +5287,9 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>245257</v>
@@ -5357,13 +5354,13 @@
       <c r="V61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>245258</v>
@@ -5428,13 +5425,13 @@
       <c r="V62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>245259</v>
@@ -5503,9 +5500,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>245260</v>
@@ -5570,13 +5567,13 @@
       <c r="V64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>245261</v>
@@ -5645,9 +5642,9 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="2">
         <v>245262</v>
@@ -5716,9 +5713,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2">
         <v>245229</v>
@@ -5787,9 +5784,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2">
         <v>245263</v>
@@ -5858,9 +5855,9 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="2">
         <v>245264</v>
@@ -5929,9 +5926,9 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="2">
         <v>245265</v>
@@ -6000,9 +5997,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B71" s="2">
         <v>245266</v>
@@ -6071,9 +6068,9 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="2">
         <v>245267</v>
@@ -6142,9 +6139,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2">
         <v>245268</v>
@@ -6213,9 +6210,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="2">
         <v>245269</v>
@@ -6284,9 +6281,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="2">
         <v>245270</v>
@@ -6355,9 +6352,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="2">
         <v>245271</v>
@@ -6426,9 +6423,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="2">
         <v>245272</v>
@@ -6493,13 +6490,13 @@
       <c r="V77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B78" s="2">
         <v>245273</v>
@@ -6564,13 +6561,13 @@
       <c r="V78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="2">
         <v>245274</v>
@@ -6639,9 +6636,9 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" s="2">
         <v>245275</v>
@@ -6706,13 +6703,13 @@
       <c r="V80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2">
         <v>245361</v>
@@ -6781,9 +6778,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="2">
         <v>245277</v>
@@ -6852,9 +6849,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2">
         <v>245278</v>
@@ -6923,9 +6920,9 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" s="2">
         <v>245279</v>
@@ -6994,9 +6991,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="2">
         <v>245280</v>
@@ -7065,9 +7062,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2">
         <v>245281</v>
@@ -7136,9 +7133,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2">
         <v>245282</v>
@@ -7203,13 +7200,13 @@
       <c r="V87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" s="2">
         <v>245283</v>
@@ -7278,9 +7275,9 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="2">
         <v>245284</v>
@@ -7349,9 +7346,9 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2">
         <v>245285</v>
@@ -7420,9 +7417,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="2">
         <v>245286</v>
@@ -7491,9 +7488,9 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2">
         <v>245287</v>
@@ -7562,9 +7559,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" s="2">
         <v>245288</v>
@@ -7633,9 +7630,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="2">
         <v>245289</v>
@@ -7704,9 +7701,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="2">
         <v>245290</v>
@@ -7771,13 +7768,13 @@
       <c r="V95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="2">
         <v>245291</v>
@@ -7842,13 +7839,13 @@
       <c r="V96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="2">
         <v>245292</v>
@@ -7917,9 +7914,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" s="2">
         <v>245293</v>
@@ -7988,9 +7985,9 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2">
         <v>245294</v>
@@ -8059,9 +8056,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" s="2">
         <v>245212</v>
@@ -8126,13 +8123,13 @@
       <c r="V100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2">
         <v>245295</v>
@@ -8201,9 +8198,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2">
         <v>245296</v>
@@ -8268,13 +8265,13 @@
       <c r="V102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B103" s="2">
         <v>245297</v>
@@ -8343,9 +8340,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2">
         <v>245298</v>
@@ -8414,9 +8411,9 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2">
         <v>245299</v>
@@ -8481,13 +8478,13 @@
       <c r="V105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2">
         <v>245301</v>
@@ -8556,9 +8553,9 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B107" s="2">
         <v>245302</v>
@@ -8627,9 +8624,9 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2">
         <v>245303</v>
@@ -8698,9 +8695,9 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2">
         <v>245304</v>
@@ -8769,9 +8766,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B110" s="2">
         <v>245305</v>
@@ -8840,9 +8837,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2">
         <v>245306</v>
@@ -8911,9 +8908,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2">
         <v>245307</v>
@@ -8982,9 +8979,9 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2">
         <v>245308</v>
@@ -9053,9 +9050,9 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B114" s="2">
         <v>245309</v>
@@ -9124,9 +9121,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2">
         <v>245315</v>
@@ -9191,13 +9188,13 @@
       <c r="V115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2">
         <v>245310</v>
@@ -9266,9 +9263,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B117" s="2">
         <v>245311</v>
@@ -9337,9 +9334,9 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2">
         <v>245312</v>
@@ -9404,13 +9401,13 @@
       <c r="V118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2">
         <v>245313</v>
@@ -9479,9 +9476,9 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2">
         <v>245314</v>
@@ -9550,9 +9547,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2">
         <v>245316</v>
@@ -9621,9 +9618,9 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2">
         <v>245317</v>
@@ -9688,13 +9685,13 @@
       <c r="V122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2">
         <v>245318</v>
@@ -9763,9 +9760,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2">
         <v>245319</v>
@@ -9834,9 +9831,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2">
         <v>245320</v>
@@ -9905,9 +9902,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B126" s="2">
         <v>245321</v>
@@ -9972,13 +9969,13 @@
       <c r="V126" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2">
         <v>245322</v>
@@ -10043,16 +10040,16 @@
       <c r="V127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C128" s="1">
         <v>32</v>
@@ -10114,13 +10111,13 @@
       <c r="V128" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2">
         <v>245323</v>
@@ -10189,9 +10186,9 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2">
         <v>245324</v>
@@ -10260,9 +10257,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2">
         <v>245325</v>
@@ -10331,9 +10328,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2">
         <v>245326</v>
@@ -10402,9 +10399,9 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="2">
         <v>245327</v>
@@ -10469,13 +10466,13 @@
       <c r="V133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2">
         <v>245328</v>
@@ -10544,9 +10541,9 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2">
         <v>245329</v>
@@ -10615,9 +10612,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2">
         <v>245330</v>
@@ -10686,9 +10683,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2">
         <v>245331</v>
@@ -10757,9 +10754,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B138" s="2">
         <v>245332</v>
@@ -10828,9 +10825,9 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2">
         <v>245333</v>
@@ -10899,9 +10896,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2">
         <v>245334</v>
@@ -10970,9 +10967,9 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2">
         <v>245335</v>
@@ -11037,13 +11034,13 @@
       <c r="V141" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2">
         <v>245336</v>
@@ -11108,13 +11105,13 @@
       <c r="V142" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W142" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2">
         <v>245337</v>
@@ -11183,9 +11180,9 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B144" s="2">
         <v>245339</v>
@@ -11254,9 +11251,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B145" s="2">
         <v>245340</v>
@@ -11325,9 +11322,9 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2">
         <v>245341</v>
@@ -11392,13 +11389,13 @@
       <c r="V146" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W146" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>245362</v>
@@ -11463,13 +11460,13 @@
       <c r="V147" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W147" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B148" s="2">
         <v>245343</v>
@@ -11538,9 +11535,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2">
         <v>245344</v>
@@ -11609,9 +11606,9 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2">
         <v>245346</v>
@@ -11680,9 +11677,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2">
         <v>245345</v>
@@ -11751,9 +11748,9 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2">
         <v>245347</v>
@@ -11818,13 +11815,13 @@
       <c r="V152" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W152" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2">
         <v>245348</v>
@@ -11893,9 +11890,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2">
         <v>245349</v>
@@ -11964,9 +11961,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B155" s="2">
         <v>245350</v>
@@ -12035,9 +12032,9 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2">
         <v>245351</v>
@@ -12106,9 +12103,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2">
         <v>245352</v>
@@ -12177,9 +12174,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2">
         <v>245353</v>
@@ -12248,9 +12245,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B159" s="2">
         <v>245276</v>
@@ -12319,9 +12316,9 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B160" s="2">
         <v>245354</v>
@@ -12390,9 +12387,9 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2">
         <v>245355</v>
@@ -12461,9 +12458,9 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B162" s="2">
         <v>245356</v>
@@ -12532,12 +12529,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C163" s="1">
         <v>17</v>
@@ -12599,13 +12596,13 @@
       <c r="V163" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W163" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2">
         <v>245357</v>
@@ -12674,9 +12671,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2">
         <v>245358</v>
@@ -12745,9 +12742,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B166" s="2">
         <v>245359</v>
@@ -12816,9 +12813,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2">
         <v>245360</v>
